--- a/xlsx/密克罗尼西亚联邦_intext.xlsx
+++ b/xlsx/密克罗尼西亚联邦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>密克罗尼西亚联邦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>密克罗尼西亚群岛</t>
   </si>
   <si>
-    <t>政策_政策_美國_密克罗尼西亚联邦</t>
+    <t>政策_政策_美国_密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6%E5%9B%BD%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%9A%84%E7%88%B1%E5%9B%BD%E8%80%85</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%88%A9%E5%9F%BA%E7%88%BE</t>
   </si>
   <si>
-    <t>帕利基爾</t>
+    <t>帕利基尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -149,25 +149,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>南島民族</t>
+    <t>南岛民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6%E8%AE%AE%E4%BC%9A</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E6%B3%95%E7%B3%BB</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6%E6%80%BB%E7%BB%9F</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.fm</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -299,9 +299,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%88%A9%E5%9F%BA%E5%B0%94</t>
   </si>
   <si>
-    <t>帕利基尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
@@ -329,15 +326,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -347,33 +341,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>國際聯盟託管地</t>
+    <t>国际联盟讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>太平洋群島託管地</t>
+    <t>太平洋群岛讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%96%AF%E9%9B%B7</t>
@@ -401,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -413,25 +404,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2</t>
   </si>
   <si>
-    <t>國防</t>
+    <t>国防</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦行政區劃</t>
+    <t>密克罗尼西亚联邦行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E6%B5%A6</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B2%9B%E8%AF%AD%E7%B3%BB</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>美國郵政</t>
+    <t>美国邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6%E5%BB%BA%E4%BA%A4%E5%88%97%E8%A1%A8</t>
@@ -515,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -569,13 +560,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
@@ -587,19 +578,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大拉西亞</t>
+    <t>澳大拉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -629,21 +617,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -671,25 +656,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -701,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -725,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -743,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -767,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
@@ -785,19 +770,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -827,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -857,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2634,7 @@
         <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2675,10 +2660,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2704,10 +2689,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2733,10 +2718,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2762,10 +2747,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2791,10 +2776,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>12</v>
@@ -2820,10 +2805,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>20</v>
@@ -2849,10 +2834,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2878,10 +2863,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2907,10 +2892,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2936,10 +2921,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
         <v>101</v>
-      </c>
-      <c r="F60" t="s">
-        <v>102</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2965,10 +2950,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2994,10 +2979,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3023,10 +3008,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -3052,10 +3037,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3081,10 +3066,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3110,10 +3095,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3139,10 +3124,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3168,10 +3153,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3197,10 +3182,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3226,10 +3211,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3255,10 +3240,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3284,10 +3269,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3313,10 +3298,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3342,10 +3327,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3371,10 +3356,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3400,10 +3385,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3429,10 +3414,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3487,10 +3472,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3516,10 +3501,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3545,10 +3530,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3574,10 +3559,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3603,10 +3588,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3632,10 +3617,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3661,10 +3646,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3690,10 +3675,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3719,10 +3704,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3748,10 +3733,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3777,10 +3762,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3806,10 +3791,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3835,10 +3820,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3864,10 +3849,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3893,10 +3878,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -3922,10 +3907,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3951,10 +3936,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3980,10 +3965,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4009,10 +3994,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4038,10 +4023,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4067,10 +4052,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4096,10 +4081,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4125,10 +4110,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4154,10 +4139,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4183,10 +4168,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4212,10 +4197,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4241,10 +4226,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4270,10 +4255,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4328,10 +4313,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4357,10 +4342,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4386,10 +4371,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4415,10 +4400,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4444,10 +4429,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4473,10 +4458,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4502,10 +4487,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4531,10 +4516,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4560,10 +4545,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4589,10 +4574,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4618,10 +4603,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4647,10 +4632,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4676,10 +4661,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4705,10 +4690,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4734,10 +4719,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4763,10 +4748,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4792,10 +4777,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -4821,10 +4806,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4850,10 +4835,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4879,10 +4864,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4908,10 +4893,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4937,10 +4922,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4966,10 +4951,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4995,10 +4980,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5024,10 +5009,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5053,10 +5038,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5082,10 +5067,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5111,10 +5096,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5140,10 +5125,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5169,10 +5154,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5198,10 +5183,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5227,10 +5212,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5256,10 +5241,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5285,10 +5270,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5314,10 +5299,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F142" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5343,10 +5328,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5372,10 +5357,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5401,10 +5386,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5430,10 +5415,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5459,10 +5444,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5488,10 +5473,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
